--- a/storage/model_registry/BoostingClassifier/report.xlsx
+++ b/storage/model_registry/BoostingClassifier/report.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.33965844402276</v>
+        <v>67.82036685641999</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.3208499308344</v>
+        <v>61.87321216806985</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
@@ -665,82 +665,82 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>61</v>
       </c>
       <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
         <v>9</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
         <v>12</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AA2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7</v>
       </c>
-      <c r="V2" t="n">
-        <v>9</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7</v>
-      </c>
-      <c r="X2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9</v>
-      </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -753,43 +753,43 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>126</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>124</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -798,52 +798,52 @@
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>15</v>
       </c>
-      <c r="U3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>18</v>
-      </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
         <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -853,70 +853,70 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
       <c r="D4" t="n">
-        <v>966</v>
+        <v>936</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
         <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="S4" t="n">
         <v>69</v>
       </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -925,28 +925,28 @@
         <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
       </c>
       <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
         <v>9</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>87</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -989,11 +989,11 @@
         <v>21</v>
       </c>
       <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
         <v>7</v>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
@@ -1001,52 +1001,52 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>72</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>27</v>
       </c>
-      <c r="S5" t="n">
-        <v>71</v>
-      </c>
-      <c r="T5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>31</v>
-      </c>
       <c r="AE5" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
         <v>2</v>
@@ -1059,19 +1059,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
@@ -1098,32 +1098,32 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
         <v>7</v>
       </c>
-      <c r="S6" t="n">
-        <v>35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1162,97 +1162,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>41</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>24</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>44</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>26</v>
-      </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1268,94 +1268,94 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1368,100 +1368,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2201</v>
+        <v>2237</v>
       </c>
       <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>76</v>
+      </c>
+      <c r="S9" t="n">
+        <v>97</v>
+      </c>
+      <c r="T9" t="n">
+        <v>44</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
         <v>9</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>84</v>
-      </c>
-      <c r="S9" t="n">
-        <v>87</v>
-      </c>
-      <c r="T9" t="n">
-        <v>36</v>
-      </c>
-      <c r="U9" t="n">
-        <v>13</v>
-      </c>
-      <c r="V9" t="n">
-        <v>15</v>
-      </c>
       <c r="W9" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X9" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1471,100 +1471,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>479</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" t="n">
+        <v>34</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>10</v>
       </c>
-      <c r="J10" t="n">
-        <v>455</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>13</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
         <v>16</v>
       </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13</v>
-      </c>
-      <c r="S10" t="n">
-        <v>40</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>14</v>
-      </c>
-      <c r="W10" t="n">
-        <v>5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1574,82 +1574,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>8</v>
       </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>113</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>9</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>99</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>23</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7</v>
-      </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1677,37 +1677,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1716,55 +1716,55 @@
         <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1783,64 +1783,64 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1852,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1904,37 +1904,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>1</v>
@@ -1943,37 +1943,37 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -1986,82 +1986,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
         <v>8</v>
       </c>
-      <c r="M15" t="n">
-        <v>7</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>300</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2070,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
         <v>4</v>
@@ -2161,28 +2161,28 @@
         <v>1</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2192,100 +2192,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>21</v>
       </c>
       <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>301</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>96</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
         <v>9</v>
       </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>300</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>87</v>
-      </c>
-      <c r="T17" t="n">
-        <v>5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10</v>
-      </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2295,97 +2295,97 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>70</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="n">
         <v>13</v>
       </c>
-      <c r="H18" t="n">
-        <v>40</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
+        <v>25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1723</v>
+      </c>
+      <c r="S18" t="n">
+        <v>21</v>
+      </c>
+      <c r="T18" t="n">
+        <v>18</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8</v>
       </c>
-      <c r="K18" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>20</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>23</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1718</v>
-      </c>
-      <c r="S18" t="n">
-        <v>28</v>
-      </c>
-      <c r="T18" t="n">
-        <v>17</v>
-      </c>
-      <c r="U18" t="n">
-        <v>8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>6</v>
-      </c>
-      <c r="W18" t="n">
-        <v>19</v>
-      </c>
-      <c r="X18" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AD18" t="n">
         <v>13</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="AF18" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
@@ -2398,61 +2398,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D19" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E19" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F19" t="n">
         <v>114</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I19" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J19" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="P19" t="n">
         <v>30</v>
       </c>
       <c r="Q19" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R19" t="n">
         <v>67</v>
       </c>
       <c r="S19" t="n">
-        <v>4608</v>
+        <v>4670</v>
       </c>
       <c r="T19" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U19" t="n">
         <v>64</v>
@@ -2464,34 +2464,34 @@
         <v>60</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="n">
         <v>25</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>20</v>
       </c>
       <c r="AE19" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AG19" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -2501,100 +2501,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
         <v>7</v>
       </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20" t="n">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="U20" t="n">
+        <v>8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>12</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
-      <c r="X20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>10</v>
-      </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2604,85 +2604,85 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18</v>
+      </c>
+      <c r="T21" t="n">
         <v>7</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>20</v>
-      </c>
-      <c r="T21" t="n">
-        <v>6</v>
       </c>
       <c r="U21" t="n">
         <v>308</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2707,83 +2707,83 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>33</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>258</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
         <v>7</v>
       </c>
-      <c r="J22" t="n">
-        <v>34</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>7</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>250</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11</v>
-      </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -2791,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -2810,28 +2810,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2855,55 +2855,55 @@
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" t="n">
+        <v>23</v>
+      </c>
+      <c r="T23" t="n">
         <v>9</v>
       </c>
-      <c r="S23" t="n">
-        <v>25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>10</v>
-      </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y23" t="n">
         <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>8</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2913,62 +2913,62 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" t="n">
         <v>24</v>
       </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>16</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>32</v>
+      </c>
+      <c r="S24" t="n">
+        <v>18</v>
+      </c>
+      <c r="T24" t="n">
         <v>12</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>117</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>19</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>37</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>30</v>
-      </c>
-      <c r="S24" t="n">
-        <v>14</v>
-      </c>
-      <c r="T24" t="n">
-        <v>13</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
@@ -2976,37 +2976,37 @@
         <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X24" t="n">
-        <v>1776</v>
+        <v>1787</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="n">
         <v>8</v>
       </c>
-      <c r="AA24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
-      </c>
       <c r="AE24" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -3016,40 +3016,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>1</v>
@@ -3061,22 +3061,22 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
@@ -3085,22 +3085,22 @@
         <v>4</v>
       </c>
       <c r="Y25" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Z25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -3109,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3119,20 +3119,20 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
         <v>9</v>
       </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>15</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>11</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -3140,79 +3140,79 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T26" t="n">
         <v>7</v>
       </c>
       <c r="U26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
         <v>7</v>
       </c>
-      <c r="W26" t="n">
-        <v>11</v>
-      </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="n">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="AA26" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB26" t="n">
         <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -3222,19 +3222,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3243,76 +3243,76 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z27" t="n">
         <v>27</v>
       </c>
       <c r="AA27" t="n">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AF27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>4</v>
@@ -3325,64 +3325,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
@@ -3391,31 +3391,31 @@
         <v>4</v>
       </c>
       <c r="X28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>6</v>
       </c>
       <c r="AA28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB28" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
         <v>6</v>
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -3440,22 +3440,22 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>6</v>
@@ -3464,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3476,16 +3476,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
         <v>9</v>
       </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8</v>
-      </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -3531,43 +3531,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>35</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>33</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>17</v>
+      </c>
+      <c r="M30" t="n">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
-        <v>24</v>
-      </c>
-      <c r="F30" t="n">
-        <v>31</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>31</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>22</v>
-      </c>
-      <c r="M30" t="n">
-        <v>11</v>
-      </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S30" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T30" t="n">
         <v>4</v>
@@ -3591,40 +3591,40 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
         <v>14</v>
       </c>
       <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>254</v>
+      </c>
+      <c r="AE30" t="n">
         <v>11</v>
       </c>
-      <c r="Y30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>269</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>10</v>
-      </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3634,100 +3634,100 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
+        <v>134</v>
+      </c>
+      <c r="E31" t="n">
+        <v>36</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" t="n">
+        <v>30</v>
+      </c>
+      <c r="H31" t="n">
         <v>11</v>
       </c>
-      <c r="D31" t="n">
-        <v>124</v>
-      </c>
-      <c r="E31" t="n">
-        <v>28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
-      </c>
-      <c r="G31" t="n">
-        <v>28</v>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
-      </c>
       <c r="I31" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J31" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K31" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N31" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O31" t="n">
         <v>81</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R31" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S31" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T31" t="n">
         <v>27</v>
       </c>
       <c r="U31" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="V31" t="n">
         <v>26</v>
       </c>
       <c r="W31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X31" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Y31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>3265</v>
+        <v>3294</v>
       </c>
       <c r="AF31" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -3737,79 +3737,79 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>40</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>30</v>
+      </c>
+      <c r="S32" t="n">
+        <v>31</v>
+      </c>
+      <c r="T32" t="n">
+        <v>26</v>
+      </c>
+      <c r="U32" t="n">
         <v>11</v>
       </c>
-      <c r="C32" t="n">
-        <v>14</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>41</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>39</v>
-      </c>
-      <c r="S32" t="n">
-        <v>25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>17</v>
-      </c>
-      <c r="U32" t="n">
-        <v>9</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
         <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA32" t="n">
         <v>4</v>
@@ -3818,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE32" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AF32" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AG32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3840,100 +3840,100 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>12</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>16</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>31</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" t="n">
         <v>13</v>
       </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>29</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>12</v>
-      </c>
       <c r="V33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
       </c>
       <c r="Z33" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF33" t="n">
         <v>2</v>
       </c>
       <c r="AG33" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/storage/model_registry/BoostingClassifier/report.xlsx
+++ b/storage/model_registry/BoostingClassifier/report.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.82036685641999</v>
+        <v>47.00569259962049</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.87321216806985</v>
+        <v>44.38930787608527</v>
       </c>
     </row>
   </sheetData>
@@ -647,100 +647,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
       </c>
       <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>23</v>
+      </c>
+      <c r="X2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>61</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="n">
         <v>7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>14</v>
-      </c>
-      <c r="S2" t="n">
-        <v>12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>9</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -750,100 +750,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>311</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
+        <v>71</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
+      <c r="R3" t="n">
+        <v>18</v>
+      </c>
+      <c r="S3" t="n">
         <v>31</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>126</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>22</v>
+      </c>
+      <c r="X3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15</v>
-      </c>
-      <c r="S3" t="n">
-        <v>51</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
-      </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -853,100 +853,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>936</v>
+        <v>584</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="L4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="O4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="R4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>46</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W4" t="n">
         <v>34</v>
       </c>
-      <c r="S4" t="n">
-        <v>69</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>16</v>
-      </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Z4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -956,85 +956,85 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>439</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54</v>
+      </c>
+      <c r="J5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="K5" t="n">
+        <v>29</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" t="n">
-        <v>571</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>106</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
+        <v>19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" t="n">
+        <v>18</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>23</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
         <v>21</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>11</v>
-      </c>
-      <c r="R5" t="n">
-        <v>24</v>
-      </c>
-      <c r="S5" t="n">
-        <v>72</v>
-      </c>
-      <c r="T5" t="n">
-        <v>14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC5" t="n">
         <v>5</v>
@@ -1043,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1059,46 +1059,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1107,52 +1107,52 @@
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
         <v>14</v>
       </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2</v>
-      </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1162,100 +1162,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>474</v>
+        <v>365</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
         <v>7</v>
       </c>
-      <c r="Y7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1265,100 +1265,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1368,100 +1368,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F9" t="n">
+        <v>73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>47</v>
+      </c>
+      <c r="H9" t="n">
         <v>38</v>
       </c>
-      <c r="G9" t="n">
-        <v>13</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>2237</v>
+        <v>1145</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="L9" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="R9" t="n">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="S9" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="T9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="W9" t="n">
+        <v>122</v>
+      </c>
+      <c r="X9" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="n">
         <v>51</v>
       </c>
-      <c r="X9" t="n">
-        <v>124</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3</v>
-      </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="AB9" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1471,100 +1471,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
       <c r="J10" t="n">
-        <v>479</v>
+        <v>256</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>42</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>40</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
         <v>12</v>
       </c>
-      <c r="M10" t="n">
-        <v>14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>11</v>
-      </c>
-      <c r="S10" t="n">
-        <v>34</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>17</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1574,82 +1574,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1677,100 +1677,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>43</v>
+      </c>
+      <c r="L12" t="n">
+        <v>979</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>59</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1345</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>18</v>
+      </c>
+      <c r="W12" t="n">
         <v>25</v>
       </c>
-      <c r="O12" t="n">
-        <v>9</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
         <v>15</v>
       </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1780,100 +1780,100 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>77</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>26</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="AF13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="n">
         <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>118</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>29</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1883,97 +1883,97 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
         <v>8</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -1986,100 +1986,100 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>21</v>
+      </c>
+      <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>8</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>29</v>
       </c>
       <c r="S15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9</v>
+      </c>
+      <c r="U15" t="n">
+        <v>14</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11</v>
+      </c>
+      <c r="W15" t="n">
         <v>23</v>
       </c>
-      <c r="T15" t="n">
-        <v>4</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7</v>
-      </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="n">
         <v>8</v>
       </c>
-      <c r="Z15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG15" t="n">
         <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>89</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2089,76 +2089,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
         <v>3</v>
@@ -2167,19 +2167,19 @@
         <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -2192,100 +2192,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
         <v>3</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2295,100 +2295,100 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C18" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41</v>
+      </c>
+      <c r="H18" t="n">
+        <v>83</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>93</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>64</v>
+      </c>
+      <c r="N18" t="n">
+        <v>42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>34</v>
+      </c>
+      <c r="P18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1366</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>29</v>
+      </c>
+      <c r="X18" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
         <v>35</v>
       </c>
-      <c r="E18" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21</v>
-      </c>
-      <c r="H18" t="n">
-        <v>32</v>
-      </c>
-      <c r="I18" t="n">
-        <v>70</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1723</v>
-      </c>
-      <c r="S18" t="n">
-        <v>21</v>
-      </c>
-      <c r="T18" t="n">
-        <v>18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>10</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>14</v>
-      </c>
-      <c r="X18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
       <c r="AE18" t="n">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2398,100 +2398,100 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C19" t="n">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D19" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E19" t="n">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F19" t="n">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="I19" t="n">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="O19" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="P19" t="n">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="Q19" t="n">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="R19" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="S19" t="n">
-        <v>4670</v>
+        <v>3460</v>
       </c>
       <c r="T19" t="n">
+        <v>99</v>
+      </c>
+      <c r="U19" t="n">
+        <v>128</v>
+      </c>
+      <c r="V19" t="n">
+        <v>57</v>
+      </c>
+      <c r="W19" t="n">
+        <v>88</v>
+      </c>
+      <c r="X19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>255</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>164</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="n">
         <v>75</v>
       </c>
-      <c r="U19" t="n">
-        <v>64</v>
-      </c>
-      <c r="V19" t="n">
-        <v>16</v>
-      </c>
-      <c r="W19" t="n">
-        <v>60</v>
-      </c>
-      <c r="X19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>110</v>
-      </c>
       <c r="AF19" t="n">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2501,100 +2501,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>41</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" t="n">
         <v>14</v>
       </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="M20" t="n">
+        <v>14</v>
+      </c>
+      <c r="N20" t="n">
         <v>7</v>
       </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>73</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
       <c r="O20" t="n">
+        <v>17</v>
+      </c>
+      <c r="P20" t="n">
         <v>12</v>
       </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>31</v>
       </c>
       <c r="S20" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="T20" t="n">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="n">
         <v>18</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3</v>
-      </c>
       <c r="AE20" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2604,97 +2604,97 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
         <v>14</v>
       </c>
-      <c r="C21" t="n">
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="n">
         <v>8</v>
       </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
       <c r="R21" t="n">
         <v>9</v>
       </c>
       <c r="S21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>207</v>
+      </c>
+      <c r="V21" t="n">
         <v>7</v>
       </c>
-      <c r="U21" t="n">
-        <v>308</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
       <c r="W21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
@@ -2707,100 +2707,100 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>171</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
         <v>33</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>258</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>53</v>
-      </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2810,100 +2810,100 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I23" t="n">
+        <v>22</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>19</v>
+      </c>
+      <c r="L23" t="n">
         <v>11</v>
       </c>
-      <c r="D23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11</v>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>32</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S23" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>762</v>
+        <v>503</v>
       </c>
       <c r="X23" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="AA23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>4</v>
-      </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2913,100 +2913,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
+        <v>32</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>26</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16</v>
+      </c>
+      <c r="K24" t="n">
+        <v>43</v>
+      </c>
+      <c r="L24" t="n">
+        <v>43</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>21</v>
+      </c>
+      <c r="R24" t="n">
+        <v>37</v>
+      </c>
+      <c r="S24" t="n">
+        <v>19</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" t="n">
+        <v>25</v>
+      </c>
+      <c r="W24" t="n">
         <v>24</v>
       </c>
-      <c r="D24" t="n">
-        <v>28</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>99</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>16</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>32</v>
-      </c>
-      <c r="S24" t="n">
-        <v>18</v>
-      </c>
-      <c r="T24" t="n">
-        <v>12</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" t="n">
-        <v>16</v>
-      </c>
       <c r="X24" t="n">
-        <v>1787</v>
+        <v>1404</v>
       </c>
       <c r="Y24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>6</v>
       </c>
       <c r="AA24" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC24" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3016,49 +3016,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
         <v>7</v>
       </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>8</v>
@@ -3067,49 +3067,49 @@
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
       </c>
       <c r="X25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y25" t="n">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="Z25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -3119,100 +3119,100 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>47</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>27</v>
+      </c>
+      <c r="K26" t="n">
+        <v>16</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>15</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37</v>
+      </c>
+      <c r="P26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>22</v>
+      </c>
+      <c r="R26" t="n">
+        <v>15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>28</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12</v>
+      </c>
+      <c r="U26" t="n">
+        <v>22</v>
+      </c>
+      <c r="V26" t="n">
+        <v>20</v>
+      </c>
+      <c r="W26" t="n">
         <v>19</v>
       </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>16</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>47</v>
-      </c>
-      <c r="T26" t="n">
-        <v>7</v>
-      </c>
-      <c r="U26" t="n">
-        <v>18</v>
-      </c>
-      <c r="V26" t="n">
-        <v>4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>781</v>
+        <v>433</v>
       </c>
       <c r="AA26" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
@@ -3222,100 +3222,100 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J27" t="n">
+        <v>39</v>
+      </c>
+      <c r="K27" t="n">
+        <v>59</v>
+      </c>
+      <c r="L27" t="n">
+        <v>106</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20</v>
+      </c>
+      <c r="N27" t="n">
+        <v>38</v>
+      </c>
+      <c r="O27" t="n">
+        <v>21</v>
+      </c>
+      <c r="P27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>11</v>
+      </c>
+      <c r="R27" t="n">
+        <v>19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>23</v>
+      </c>
+      <c r="V27" t="n">
+        <v>33</v>
+      </c>
+      <c r="W27" t="n">
+        <v>25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
         <v>30</v>
       </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>54</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
+        <v>1014</v>
+      </c>
+      <c r="AB27" t="n">
         <v>15</v>
       </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>17</v>
-      </c>
-      <c r="S27" t="n">
-        <v>13</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>6</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9</v>
-      </c>
-      <c r="W27" t="n">
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11</v>
       </c>
-      <c r="X27" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1464</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>3</v>
-      </c>
       <c r="AG27" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3358,67 +3358,67 @@
         <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W28" t="n">
         <v>4</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="n">
         <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3428,31 +3428,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>6</v>
@@ -3461,64 +3461,64 @@
         <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>9</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="AD29" t="n">
         <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -3531,100 +3531,100 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
         <v>14</v>
       </c>
       <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18</v>
+      </c>
+      <c r="M30" t="n">
+        <v>32</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>11</v>
+      </c>
+      <c r="R30" t="n">
+        <v>13</v>
+      </c>
+      <c r="S30" t="n">
+        <v>17</v>
+      </c>
+      <c r="T30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="n">
-        <v>17</v>
-      </c>
-      <c r="M30" t="n">
-        <v>7</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>14</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
+        <v>8</v>
+      </c>
+      <c r="V30" t="n">
         <v>16</v>
       </c>
-      <c r="T30" t="n">
-        <v>4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
+        <v>18</v>
+      </c>
+      <c r="X30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y30" t="n">
         <v>13</v>
       </c>
-      <c r="W30" t="n">
-        <v>14</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>124</v>
+      </c>
+      <c r="AE30" t="n">
         <v>13</v>
       </c>
-      <c r="Y30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>254</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>11</v>
-      </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -3634,100 +3634,100 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I31" t="n">
+        <v>44</v>
+      </c>
+      <c r="J31" t="n">
+        <v>73</v>
+      </c>
+      <c r="K31" t="n">
+        <v>279</v>
+      </c>
+      <c r="L31" t="n">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
         <v>62</v>
       </c>
-      <c r="J31" t="n">
+      <c r="N31" t="n">
+        <v>99</v>
+      </c>
+      <c r="O31" t="n">
+        <v>137</v>
+      </c>
+      <c r="P31" t="n">
         <v>31</v>
       </c>
-      <c r="K31" t="n">
-        <v>35</v>
-      </c>
-      <c r="L31" t="n">
-        <v>110</v>
-      </c>
-      <c r="M31" t="n">
-        <v>6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>34</v>
-      </c>
-      <c r="O31" t="n">
-        <v>81</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
       <c r="Q31" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="R31" t="n">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="S31" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="T31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U31" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="V31" t="n">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="W31" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="X31" t="n">
         <v>59</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AA31" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="AC31" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="n">
-        <v>3294</v>
+        <v>1802</v>
       </c>
       <c r="AF31" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -3737,97 +3737,97 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13</v>
+      </c>
+      <c r="I32" t="n">
         <v>12</v>
       </c>
-      <c r="D32" t="n">
-        <v>16</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>40</v>
-      </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R32" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S32" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T32" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="U32" t="n">
         <v>11</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE32" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="AF32" t="n">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
@@ -3840,100 +3840,100 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
         <v>14</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
+        <v>16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>11</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>19</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>29</v>
+      </c>
+      <c r="V33" t="n">
+        <v>13</v>
+      </c>
+      <c r="W33" t="n">
         <v>12</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>31</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>13</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4</v>
-      </c>
-      <c r="W33" t="n">
-        <v>4</v>
-      </c>
       <c r="X33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y33" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="AA33" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AB33" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
         <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>293</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
